--- a/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FECD75A-F85F-4843-9F2C-0597FBD8E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D7B288-BC41-4819-ACE5-996E07CB39DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7CAA91F-5889-485B-B937-7EC52F5BB091}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76273738-EE8B-40BA-A4B0-475B67CF4C01}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA18E1-A948-4973-B2D0-9CF020DE0A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCA0995-9406-4F57-A5EF-01BD67E4244E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D7B288-BC41-4819-ACE5-996E07CB39DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E874743-EFCE-4AB5-918B-900103317B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76273738-EE8B-40BA-A4B0-475B67CF4C01}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9FEC21B-E122-44F2-B572-09AF535F2417}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>12,43%</t>
   </si>
   <si>
-    <t>18,13%</t>
+    <t>18,2%</t>
   </si>
   <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>84,86%</t>
   </si>
   <si>
-    <t>81,87%</t>
+    <t>81,8%</t>
   </si>
   <si>
     <t>87,57%</t>
@@ -113,19 +113,19 @@
     <t>72,4%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,76 +194,79 @@
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>8,0%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>9,3%</t>
+    <t>9,25%</t>
   </si>
   <si>
     <t>10,77%</t>
@@ -272,16 +275,19 @@
     <t>92,9%</t>
   </si>
   <si>
-    <t>92,0%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>87,35%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>89,96%</t>
@@ -290,7 +296,7 @@
     <t>89,23%</t>
   </si>
   <si>
-    <t>90,7%</t>
+    <t>90,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCA0995-9406-4F57-A5EF-01BD67E4244E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10C8A6-1587-459A-8EC2-7FCAAC4B5638}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1297,10 +1303,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>761</v>
@@ -1309,13 +1315,13 @@
         <v>480186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1043</v>
@@ -1324,13 +1330,13 @@
         <v>719663</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,28 +1351,28 @@
         <v>3135070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4588</v>
       </c>
       <c r="I14" s="7">
-        <v>3315130</v>
+        <v>3315131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7668</v>
@@ -1375,13 +1381,13 @@
         <v>6450201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,7 +1414,7 @@
         <v>5349</v>
       </c>
       <c r="I15" s="7">
-        <v>3795316</v>
+        <v>3795317</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E874743-EFCE-4AB5-918B-900103317B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D0EB37-295B-409D-BBEB-F3A23DCD149F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9FEC21B-E122-44F2-B572-09AF535F2417}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEC6D31C-813C-4955-9408-8456F19522FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>12,43%</t>
   </si>
   <si>
-    <t>18,2%</t>
+    <t>18,13%</t>
   </si>
   <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>84,86%</t>
   </si>
   <si>
-    <t>81,8%</t>
+    <t>81,87%</t>
   </si>
   <si>
     <t>87,57%</t>
@@ -113,19 +113,19 @@
     <t>72,4%</t>
   </si>
   <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,79 +194,76 @@
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>8,0%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>9,3%</t>
   </si>
   <si>
     <t>10,77%</t>
@@ -275,19 +272,16 @@
     <t>92,9%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>92,0%</t>
   </si>
   <si>
     <t>87,35%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>89,96%</t>
@@ -296,7 +290,7 @@
     <t>89,23%</t>
   </si>
   <si>
-    <t>90,75%</t>
+    <t>90,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A10C8A6-1587-459A-8EC2-7FCAAC4B5638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3BA3FA-9403-4727-8B84-008E2EC25A59}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1303,10 +1297,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>761</v>
@@ -1315,13 +1309,13 @@
         <v>480186</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1043</v>
@@ -1330,13 +1324,13 @@
         <v>719663</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,28 +1345,28 @@
         <v>3135070</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>4588</v>
       </c>
       <c r="I14" s="7">
-        <v>3315131</v>
+        <v>3315130</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7668</v>
@@ -1381,13 +1375,13 @@
         <v>6450201</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1414,7 +1408,7 @@
         <v>5349</v>
       </c>
       <c r="I15" s="7">
-        <v>3795317</v>
+        <v>3795316</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D0EB37-295B-409D-BBEB-F3A23DCD149F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A00115-E900-4DA0-8E1D-4990CCCD1C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEC6D31C-813C-4955-9408-8456F19522FF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EFCBA6AA-763A-4111-AEB8-5926D4361A55}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3BA3FA-9403-4727-8B84-008E2EC25A59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DBD36-E59B-42FC-922F-72B9C7BAF681}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +826,7 @@
         <v>108</v>
       </c>
       <c r="D4" s="7">
-        <v>81819</v>
+        <v>74100</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +841,7 @@
         <v>376</v>
       </c>
       <c r="I4" s="7">
-        <v>229806</v>
+        <v>200940</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +856,7 @@
         <v>484</v>
       </c>
       <c r="N4" s="7">
-        <v>311625</v>
+        <v>275040</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +877,7 @@
         <v>582</v>
       </c>
       <c r="D5" s="7">
-        <v>458744</v>
+        <v>439842</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>1049</v>
       </c>
       <c r="I5" s="7">
-        <v>602760</v>
+        <v>551663</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>1631</v>
       </c>
       <c r="N5" s="7">
-        <v>1061504</v>
+        <v>991504</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +928,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832566</v>
+        <v>752603</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +958,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1373129</v>
+        <v>1266544</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +981,7 @@
         <v>133</v>
       </c>
       <c r="D7" s="7">
-        <v>119387</v>
+        <v>108930</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +996,7 @@
         <v>301</v>
       </c>
       <c r="I7" s="7">
-        <v>195668</v>
+        <v>175800</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1011,7 @@
         <v>434</v>
       </c>
       <c r="N7" s="7">
-        <v>315055</v>
+        <v>284730</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1032,7 @@
         <v>1858</v>
       </c>
       <c r="D8" s="7">
-        <v>2041558</v>
+        <v>2180367</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1047,7 @@
         <v>2619</v>
       </c>
       <c r="I8" s="7">
-        <v>2053196</v>
+        <v>2061433</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1062,7 @@
         <v>4477</v>
       </c>
       <c r="N8" s="7">
-        <v>4094754</v>
+        <v>4241801</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1083,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1098,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248864</v>
+        <v>2237233</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1113,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409809</v>
+        <v>4526531</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1136,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>38271</v>
+        <v>35886</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,7 +1151,7 @@
         <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>54712</v>
+        <v>49618</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1166,7 +1166,7 @@
         <v>125</v>
       </c>
       <c r="N10" s="7">
-        <v>92983</v>
+        <v>85504</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1175,7 +1175,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,46 +1187,46 @@
         <v>640</v>
       </c>
       <c r="D11" s="7">
-        <v>634768</v>
+        <v>610737</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>920</v>
       </c>
       <c r="I11" s="7">
-        <v>659174</v>
+        <v>610845</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1560</v>
       </c>
       <c r="N11" s="7">
-        <v>1293943</v>
+        <v>1221582</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1253,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1291,46 @@
         <v>282</v>
       </c>
       <c r="D13" s="7">
-        <v>239477</v>
+        <v>218916</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>761</v>
       </c>
       <c r="I13" s="7">
-        <v>480186</v>
+        <v>426358</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1043</v>
       </c>
       <c r="N13" s="7">
-        <v>719663</v>
+        <v>645274</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,22 +1342,22 @@
         <v>3080</v>
       </c>
       <c r="D14" s="7">
-        <v>3135070</v>
+        <v>3230947</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>4588</v>
       </c>
       <c r="I14" s="7">
-        <v>3315130</v>
+        <v>3223941</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1372,7 +1372,7 @@
         <v>7668</v>
       </c>
       <c r="N14" s="7">
-        <v>6450201</v>
+        <v>6454887</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1393,7 +1393,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374547</v>
+        <v>3449863</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>5349</v>
       </c>
       <c r="I15" s="7">
-        <v>3795316</v>
+        <v>3650299</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1423,7 @@
         <v>8711</v>
       </c>
       <c r="N15" s="7">
-        <v>7169864</v>
+        <v>7100161</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
